--- a/Employee_Reports35/John Michael Yagonia Q0312.xlsx
+++ b/Employee_Reports35/John Michael Yagonia Q0312.xlsx
@@ -35,7 +35,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -46,12 +46,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="001F4E78"/>
         <bgColor rgb="001F4E78"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFACD"/>
-        <bgColor rgb="00FFFACD"/>
       </patternFill>
     </fill>
     <fill>
@@ -79,7 +73,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -91,9 +85,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -461,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,14 +462,14 @@
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
     <col width="52" customWidth="1" min="2" max="2"/>
-    <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="16" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
     <col width="13" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="11" customWidth="1" min="10" max="10"/>
     <col width="9" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -581,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -630,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -679,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -728,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -777,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -826,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -875,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -924,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -973,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1022,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1071,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1120,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1140,122 +1131,73 @@
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>LOTO (SOPs)</t>
-        </is>
-      </c>
-      <c r="C15" s="4" t="inlineStr">
-        <is>
-          <t>ELECTRICAL SAFETY</t>
-        </is>
-      </c>
-      <c r="D15" s="4" t="inlineStr">
-        <is>
-          <t>LSME-OHS-SOP-021</t>
-        </is>
-      </c>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
+          <t>Endangered by Electricity A safety Training (SOPs)</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr"/>
+      <c r="D15" s="4" t="inlineStr"/>
+      <c r="E15" s="4" t="inlineStr"/>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>05-Dec-2024</t>
+          <t>06-Aug-2024</t>
         </is>
       </c>
       <c r="G15" s="4" t="inlineStr">
         <is>
-          <t>05-Dec-2025</t>
+          <t>06-Aug-2025</t>
         </is>
       </c>
       <c r="H15" s="4" t="n">
-        <v>32</v>
+        <v>-90</v>
       </c>
       <c r="I15" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="4" t="inlineStr">
         <is>
-          <t>EXPIRING SOON</t>
+          <t>NOT VALID</t>
         </is>
       </c>
       <c r="K15" s="4" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="n">
+      <c r="A16" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="inlineStr">
-        <is>
-          <t>Endangered by Electricity A safety Training (SOPs)</t>
-        </is>
-      </c>
-      <c r="C16" s="5" t="inlineStr"/>
-      <c r="D16" s="5" t="inlineStr"/>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr">
-        <is>
-          <t>06-Aug-2024</t>
-        </is>
-      </c>
-      <c r="G16" s="5" t="inlineStr">
-        <is>
-          <t>06-Aug-2025</t>
-        </is>
-      </c>
-      <c r="H16" s="5" t="n">
-        <v>-89</v>
-      </c>
-      <c r="I16" s="5" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J16" s="5" t="inlineStr">
-        <is>
-          <t>NOT VALID</t>
-        </is>
-      </c>
-      <c r="K16" s="5" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>IS0 55001 (Other Trainings)</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr"/>
-      <c r="D17" s="3" t="inlineStr"/>
-      <c r="E17" s="3" t="inlineStr"/>
-      <c r="F17" s="3" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr"/>
+      <c r="D16" s="3" t="inlineStr"/>
+      <c r="E16" s="3" t="inlineStr"/>
+      <c r="F16" s="3" t="inlineStr">
         <is>
           <t>02-Jul-2025</t>
         </is>
       </c>
-      <c r="G17" s="3" t="inlineStr">
+      <c r="G16" s="3" t="inlineStr">
         <is>
           <t>02-Jul-2027</t>
         </is>
       </c>
-      <c r="H17" s="3" t="n">
-        <v>606</v>
-      </c>
-      <c r="I17" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J17" s="3" t="inlineStr">
+      <c r="H16" s="3" t="n">
+        <v>605</v>
+      </c>
+      <c r="I16" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
         <is>
           <t>VALID</t>
         </is>
       </c>
-      <c r="K17" s="3" t="inlineStr"/>
+      <c r="K16" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1360,274 +1302,274 @@
       <c r="G3" s="3" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>Consignment Shuttle Tv</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>88.60%</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>NOT VALID</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>Approved Score. Kindly redo your exam the exam is not recorded properly</t>
         </is>
       </c>
-      <c r="G4" s="5" t="n"/>
+      <c r="G4" s="4" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>Uld&amp;Bb-Tv</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>87.50%</t>
         </is>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>NOT VALID</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>Approved Score. Kindly redo your exam the exam is not recorded properly</t>
         </is>
       </c>
-      <c r="G5" s="5" t="n"/>
+      <c r="G5" s="4" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>Fmc Deck</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr"/>
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>96.60%</t>
         </is>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>NOT VALID</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>Approved Score. Kindly redo your exam the exam is not recorded properly</t>
         </is>
       </c>
-      <c r="G6" s="5" t="n"/>
+      <c r="G6" s="4" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="n">
+      <c r="A7" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Weight Scales</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>73.00%</t>
         </is>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>NOT VALID</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>This is a low mark, please retake the exam and improve your score. Kindly redo your exam the exam is not recorded properly</t>
         </is>
       </c>
-      <c r="G7" s="5" t="n"/>
+      <c r="G7" s="4" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>Tilting Deck</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr"/>
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>96.10%</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>NOT VALID</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>Approved Score. Kindly redo your exam the exam is not recorded properly</t>
         </is>
       </c>
-      <c r="G8" s="5" t="n"/>
+      <c r="G8" s="4" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n">
+      <c r="A9" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>Turntable &amp; Ra Deck</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr"/>
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>89.40%</t>
         </is>
       </c>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="E9" s="4" t="inlineStr">
         <is>
           <t>NOT VALID</t>
         </is>
       </c>
-      <c r="F9" s="5" t="inlineStr">
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>Approved Score. Kindly redo your exam the exam is not recorded properly</t>
         </is>
       </c>
-      <c r="G9" s="5" t="n"/>
+      <c r="G9" s="4" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="n">
+      <c r="A10" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>Uld Hoist</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr"/>
+      <c r="D10" s="4" t="inlineStr">
         <is>
           <t>85.80%</t>
         </is>
       </c>
-      <c r="E10" s="5" t="inlineStr">
+      <c r="E10" s="4" t="inlineStr">
         <is>
           <t>NOT VALID</t>
         </is>
       </c>
-      <c r="F10" s="5" t="inlineStr">
+      <c r="F10" s="4" t="inlineStr">
         <is>
           <t>Approved Score. Kindly redo your exam the exam is not recorded properly</t>
         </is>
       </c>
-      <c r="G10" s="5" t="n"/>
+      <c r="G10" s="4" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n">
+      <c r="A11" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>Software &amp; Parameters</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr"/>
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t>89.20%</t>
         </is>
       </c>
-      <c r="E11" s="5" t="inlineStr">
+      <c r="E11" s="4" t="inlineStr">
         <is>
           <t>NOT VALID</t>
         </is>
       </c>
-      <c r="F11" s="5" t="inlineStr">
+      <c r="F11" s="4" t="inlineStr">
         <is>
           <t>Approved Score. Kindly redo your exam the exam is not recorded properly</t>
         </is>
       </c>
-      <c r="G11" s="5" t="n"/>
+      <c r="G11" s="4" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="n">
+      <c r="A12" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>Control Circuits</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr"/>
+      <c r="D12" s="4" t="inlineStr">
         <is>
           <t>75.40%</t>
         </is>
       </c>
-      <c r="E12" s="5" t="inlineStr">
+      <c r="E12" s="4" t="inlineStr">
         <is>
           <t>NOT VALID</t>
         </is>
       </c>
-      <c r="F12" s="5" t="inlineStr">
+      <c r="F12" s="4" t="inlineStr">
         <is>
           <t>Approved Score. Kindly redo your exam the exam is not recorded properly</t>
         </is>
       </c>
-      <c r="G12" s="5" t="n"/>
+      <c r="G12" s="4" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="n">
+      <c r="A13" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>Cool Rooms</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr"/>
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t>95.90%</t>
         </is>
       </c>
-      <c r="E13" s="5" t="inlineStr">
+      <c r="E13" s="4" t="inlineStr">
         <is>
           <t>NOT VALID</t>
         </is>
       </c>
-      <c r="F13" s="5" t="inlineStr">
+      <c r="F13" s="4" t="inlineStr">
         <is>
           <t>Approved Score. Kindly redo your exam the exam is not recorded properly</t>
         </is>
       </c>
-      <c r="G13" s="5" t="n"/>
+      <c r="G13" s="4" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr"/>

--- a/Employee_Reports35/John Michael Yagonia Q0312.xlsx
+++ b/Employee_Reports35/John Michael Yagonia Q0312.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1148,11 +1148,11 @@
         </is>
       </c>
       <c r="H15" s="4" t="n">
-        <v>-90</v>
+        <v>-91</v>
       </c>
       <c r="I15" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="4" t="inlineStr">
@@ -1185,11 +1185,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
